--- a/PyQt5_GUI/RemV_Package/lib/res/word_Repository/Book.xlsx
+++ b/PyQt5_GUI/RemV_Package/lib/res/word_Repository/Book.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -390,8 +390,53 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
+        <is>
+          <t>中英</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中英</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Contemporary</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>adj. 发生（属）于同时期的；当代的</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中英</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>despise</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>vt. 轻视，鄙视</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
         <is>
           <t>中英</t>
         </is>
